--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1595516.942544853</v>
+        <v>1592832.213494042</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673447</v>
       </c>
     </row>
     <row r="9">
@@ -662,13 +662,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="E2" t="n">
         <v>239.8079481415045</v>
       </c>
       <c r="F2" t="n">
-        <v>225.4620218036387</v>
+        <v>198.3059367771002</v>
       </c>
       <c r="G2" t="n">
         <v>12.9169039459368</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>239.8079481415045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>117.8368666906171</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>45.4458084395867</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.90078060183515</v>
       </c>
       <c r="S3" t="n">
-        <v>126.2660356418543</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>40.37847049510755</v>
+        <v>207.6252915937353</v>
       </c>
       <c r="V4" t="n">
         <v>239.8079481415045</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>296.8041905167402</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.32645592736791</v>
+        <v>12.3264559273679</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>95.73279365801329</v>
+        <v>95.73279365801287</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>141.1980529050016</v>
+        <v>141.1980529050014</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>246.9654385708984</v>
       </c>
     </row>
     <row r="6">
@@ -975,25 +975,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>83.7518361704995</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7510661231143</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.85571971767118</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>34.56882291827315</v>
+        <v>34.56882291827294</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.286180978941559</v>
+        <v>1.286180978941189</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>11.18761821957841</v>
+        <v>193.7460334937315</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.836615565179</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>100.8217016553791</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6559219003395</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.3572980161605</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>182.3800877092713</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>286.2462080405934</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>106.5125558626488</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>264.3750251656581</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>53.18661520617262</v>
+        <v>50.9807481254279</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1373,10 +1373,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>70.52179481080262</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>42.572507621948</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,10 +1385,10 @@
         <v>410.3498598144164</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>288.7511433632822</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>19.53007201344982</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>96.1563689811189</v>
       </c>
       <c r="T11" t="n">
         <v>201.4146274292355</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,10 +1464,10 @@
         <v>134.6934939670195</v>
       </c>
       <c r="H12" t="n">
-        <v>86.64179915749277</v>
+        <v>86.64179915749276</v>
       </c>
       <c r="I12" t="n">
-        <v>8.28254627149002</v>
+        <v>8.282546271489949</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>122.4601525254634</v>
+        <v>122.4601525254633</v>
       </c>
       <c r="T12" t="n">
         <v>189.4832755487706</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>104.8328074876923</v>
+        <v>45.7801138577687</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,10 +1537,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.7692889308208</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,16 +1576,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.2985930389548</v>
+        <v>185.2985930389547</v>
       </c>
       <c r="T13" t="n">
-        <v>218.4529121465558</v>
+        <v>218.4529121465557</v>
       </c>
       <c r="U13" t="n">
         <v>286.1978462422561</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1622,7 +1622,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H14" t="n">
-        <v>283.5630920045443</v>
+        <v>233.2715658672539</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081959</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
-        <v>200.6173698503559</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.183495284996</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1854515484204</v>
+        <v>158.6802269624889</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.61259060081957</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T17" t="n">
-        <v>199.1970568374742</v>
+        <v>148.9055307001839</v>
       </c>
       <c r="U17" t="n">
         <v>250.9088959876463</v>
       </c>
       <c r="V17" t="n">
-        <v>277.4607323328457</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1938,7 +1938,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561454</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>101.8515596146958</v>
       </c>
       <c r="I19" t="n">
-        <v>3.824156177169797</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>332.4423155261916</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081962</v>
+        <v>34.32106446352842</v>
       </c>
       <c r="T20" t="n">
         <v>199.1970568374742</v>
@@ -2175,7 +2175,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2239,10 +2239,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,10 +2251,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>105.3798824585335</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S22" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1854515484204</v>
+        <v>176.7551409684878</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717414</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>108.5813113004306</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>87.21471514852939</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187869</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,16 +2716,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>108.2950343703267</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>140.9357387834174</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695611</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,22 +2995,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>202.9133247598024</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>176.519656284926</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634816</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="33">
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>13.03790159951642</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>168.4805514670957</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>103.9877674501607</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>97.75513637220222</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797025</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>173.1378795275023</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3907,13 +3907,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>103.1686991936199</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.0656089242822</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634816</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>41.33703994143035</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>55.52079624060534</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>502.2016801857446</v>
+        <v>717.0015419180336</v>
       </c>
       <c r="C2" t="n">
-        <v>502.2016801857446</v>
+        <v>717.0015419180336</v>
       </c>
       <c r="D2" t="n">
-        <v>502.2016801857446</v>
+        <v>474.7712912700492</v>
       </c>
       <c r="E2" t="n">
-        <v>259.9714295377603</v>
+        <v>232.5410406220649</v>
       </c>
       <c r="F2" t="n">
         <v>32.23201357448885</v>
@@ -4358,22 +4358,22 @@
         <v>959.2317925660179</v>
       </c>
       <c r="T2" t="n">
-        <v>744.431930833729</v>
+        <v>959.2317925660179</v>
       </c>
       <c r="U2" t="n">
-        <v>744.431930833729</v>
+        <v>959.2317925660179</v>
       </c>
       <c r="V2" t="n">
-        <v>744.431930833729</v>
+        <v>959.2317925660179</v>
       </c>
       <c r="W2" t="n">
-        <v>744.431930833729</v>
+        <v>717.0015419180336</v>
       </c>
       <c r="X2" t="n">
-        <v>744.431930833729</v>
+        <v>717.0015419180336</v>
       </c>
       <c r="Y2" t="n">
-        <v>502.2016801857446</v>
+        <v>717.0015419180336</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>831.6903424227307</v>
+        <v>730.3595942032507</v>
       </c>
       <c r="C3" t="n">
-        <v>657.2373131416037</v>
+        <v>611.3324561319203</v>
       </c>
       <c r="D3" t="n">
-        <v>508.3029034803525</v>
+        <v>462.3980464706689</v>
       </c>
       <c r="E3" t="n">
-        <v>349.065448474897</v>
+        <v>303.1605914652134</v>
       </c>
       <c r="F3" t="n">
-        <v>202.530890501782</v>
+        <v>156.6260334920984</v>
       </c>
       <c r="G3" t="n">
-        <v>65.08949286100389</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="H3" t="n">
-        <v>65.08949286100389</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="I3" t="n">
         <v>19.18463585132036</v>
       </c>
       <c r="J3" t="n">
-        <v>85.30141548166243</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="K3" t="n">
-        <v>152.9092351450193</v>
+        <v>86.79245551467721</v>
       </c>
       <c r="L3" t="n">
-        <v>290.138833160713</v>
+        <v>224.022053530371</v>
       </c>
       <c r="M3" t="n">
-        <v>469.6361695153176</v>
+        <v>403.5193898849756</v>
       </c>
       <c r="N3" t="n">
-        <v>668.2929111679821</v>
+        <v>602.17613153764</v>
       </c>
       <c r="O3" t="n">
-        <v>827.8052238367425</v>
+        <v>761.6884442064004</v>
       </c>
       <c r="P3" t="n">
-        <v>936.4948513640411</v>
+        <v>870.378071733699</v>
       </c>
       <c r="Q3" t="n">
         <v>959.2317925660179</v>
       </c>
       <c r="R3" t="n">
-        <v>959.2317925660179</v>
+        <v>938.1198929682047</v>
       </c>
       <c r="S3" t="n">
-        <v>831.6903424227307</v>
+        <v>938.1198929682047</v>
       </c>
       <c r="T3" t="n">
-        <v>831.6903424227307</v>
+        <v>938.1198929682047</v>
       </c>
       <c r="U3" t="n">
-        <v>831.6903424227307</v>
+        <v>938.1198929682047</v>
       </c>
       <c r="V3" t="n">
-        <v>831.6903424227307</v>
+        <v>938.1198929682047</v>
       </c>
       <c r="W3" t="n">
-        <v>831.6903424227307</v>
+        <v>938.1198929682047</v>
       </c>
       <c r="X3" t="n">
-        <v>831.6903424227307</v>
+        <v>938.1198929682047</v>
       </c>
       <c r="Y3" t="n">
-        <v>831.6903424227307</v>
+        <v>730.3595942032507</v>
       </c>
     </row>
     <row r="4">
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.9954065385899</v>
+        <v>37.05922361068303</v>
       </c>
       <c r="C4" t="n">
         <v>37.05922361068303</v>
@@ -4489,19 +4489,19 @@
         <v>19.18463585132036</v>
       </c>
       <c r="K4" t="n">
-        <v>120.2325654469301</v>
+        <v>63.76336012264326</v>
       </c>
       <c r="L4" t="n">
-        <v>305.0655603477483</v>
+        <v>248.5963550234615</v>
       </c>
       <c r="M4" t="n">
-        <v>510.3351610669861</v>
+        <v>453.8659557426993</v>
       </c>
       <c r="N4" t="n">
-        <v>716.1585259030903</v>
+        <v>659.6893205788035</v>
       </c>
       <c r="O4" t="n">
-        <v>890.2534212916892</v>
+        <v>833.7842159674024</v>
       </c>
       <c r="P4" t="n">
         <v>959.2317925660179</v>
@@ -4519,19 +4519,19 @@
         <v>959.2317925660179</v>
       </c>
       <c r="U4" t="n">
-        <v>918.445458732576</v>
+        <v>749.5092758046691</v>
       </c>
       <c r="V4" t="n">
-        <v>676.2152080845916</v>
+        <v>507.2790251566847</v>
       </c>
       <c r="W4" t="n">
-        <v>433.9849574366073</v>
+        <v>265.0487745087004</v>
       </c>
       <c r="X4" t="n">
-        <v>205.9954065385899</v>
+        <v>37.05922361068303</v>
       </c>
       <c r="Y4" t="n">
-        <v>205.9954065385899</v>
+        <v>37.05922361068303</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>441.7871446274395</v>
+        <v>876.1586482806331</v>
       </c>
       <c r="C5" t="n">
-        <v>441.7871446274395</v>
+        <v>507.1961313402213</v>
       </c>
       <c r="D5" t="n">
-        <v>441.7871446274395</v>
+        <v>148.9304327334708</v>
       </c>
       <c r="E5" t="n">
-        <v>441.7871446274395</v>
+        <v>148.9304327334708</v>
       </c>
       <c r="F5" t="n">
-        <v>141.9849319842676</v>
+        <v>141.9849319842673</v>
       </c>
       <c r="G5" t="n">
-        <v>129.5339664010677</v>
+        <v>129.5339664010675</v>
       </c>
       <c r="H5" t="n">
-        <v>129.5339664010677</v>
+        <v>129.5339664010675</v>
       </c>
       <c r="I5" t="n">
-        <v>32.83417482731685</v>
+        <v>32.83417482731709</v>
       </c>
       <c r="J5" t="n">
-        <v>103.6808269615512</v>
+        <v>103.6808269615522</v>
       </c>
       <c r="K5" t="n">
-        <v>260.6001116567554</v>
+        <v>260.6001116567576</v>
       </c>
       <c r="L5" t="n">
-        <v>492.1741219314151</v>
+        <v>492.1741219314185</v>
       </c>
       <c r="M5" t="n">
-        <v>781.5142653409514</v>
+        <v>781.5142653409569</v>
       </c>
       <c r="N5" t="n">
-        <v>1080.150043145494</v>
+        <v>1080.150043145501</v>
       </c>
       <c r="O5" t="n">
-        <v>1348.808078565215</v>
+        <v>1348.808078565224</v>
       </c>
       <c r="P5" t="n">
-        <v>1543.600495313669</v>
+        <v>1543.600495313679</v>
       </c>
       <c r="Q5" t="n">
-        <v>1641.708741365842</v>
+        <v>1641.708741365854</v>
       </c>
       <c r="R5" t="n">
-        <v>1641.708741365842</v>
+        <v>1641.708741365854</v>
       </c>
       <c r="S5" t="n">
-        <v>1499.084445502204</v>
+        <v>1499.084445502216</v>
       </c>
       <c r="T5" t="n">
-        <v>1499.084445502204</v>
+        <v>1499.084445502216</v>
       </c>
       <c r="U5" t="n">
-        <v>1499.084445502204</v>
+        <v>1499.084445502216</v>
       </c>
       <c r="V5" t="n">
-        <v>1168.021558158634</v>
+        <v>1499.084445502216</v>
       </c>
       <c r="W5" t="n">
-        <v>815.2529028885194</v>
+        <v>1499.084445502216</v>
       </c>
       <c r="X5" t="n">
-        <v>441.7871446274395</v>
+        <v>1125.618687241137</v>
       </c>
       <c r="Y5" t="n">
-        <v>441.7871446274395</v>
+        <v>876.1586482806331</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.8679790301431</v>
+        <v>311.5874470941589</v>
       </c>
       <c r="C6" t="n">
-        <v>757.4149497490162</v>
+        <v>311.5874470941589</v>
       </c>
       <c r="D6" t="n">
-        <v>608.4805400877649</v>
+        <v>226.989632780523</v>
       </c>
       <c r="E6" t="n">
-        <v>449.2430850823093</v>
+        <v>67.75217777506754</v>
       </c>
       <c r="F6" t="n">
-        <v>302.7085271091943</v>
+        <v>67.75217777506754</v>
       </c>
       <c r="G6" t="n">
-        <v>165.5862380959475</v>
+        <v>67.75217777506754</v>
       </c>
       <c r="H6" t="n">
-        <v>67.75217777506751</v>
+        <v>67.75217777506754</v>
       </c>
       <c r="I6" t="n">
-        <v>32.83417482731685</v>
+        <v>32.83417482731709</v>
       </c>
       <c r="J6" t="n">
-        <v>56.21210853331838</v>
+        <v>56.21210853331917</v>
       </c>
       <c r="K6" t="n">
-        <v>432.8291299294518</v>
+        <v>194.9189743726153</v>
       </c>
       <c r="L6" t="n">
-        <v>637.9670740025088</v>
+        <v>400.0569184456735</v>
       </c>
       <c r="M6" t="n">
-        <v>896.7102471763008</v>
+        <v>658.8000916194669</v>
       </c>
       <c r="N6" t="n">
-        <v>1176.71022714541</v>
+        <v>938.8000715885773</v>
       </c>
       <c r="O6" t="n">
-        <v>1410.635711182189</v>
+        <v>1172.725555625358</v>
       </c>
       <c r="P6" t="n">
-        <v>1579.048469113396</v>
+        <v>1579.048469113407</v>
       </c>
       <c r="Q6" t="n">
-        <v>1641.708741365842</v>
+        <v>1641.708741365854</v>
       </c>
       <c r="R6" t="n">
-        <v>1640.409568659841</v>
+        <v>1640.409568659853</v>
       </c>
       <c r="S6" t="n">
-        <v>1640.409568659841</v>
+        <v>1640.409568659853</v>
       </c>
       <c r="T6" t="n">
-        <v>1629.10894419562</v>
+        <v>1444.706504524771</v>
       </c>
       <c r="U6" t="n">
-        <v>1629.10894419562</v>
+        <v>1216.58871102459</v>
       </c>
       <c r="V6" t="n">
-        <v>1393.956835963877</v>
+        <v>981.4366027928472</v>
       </c>
       <c r="W6" t="n">
-        <v>1139.719479235676</v>
+        <v>727.1992460646456</v>
       </c>
       <c r="X6" t="n">
-        <v>931.8679790301431</v>
+        <v>519.3477458591128</v>
       </c>
       <c r="Y6" t="n">
-        <v>931.8679790301431</v>
+        <v>311.5874470941589</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>353.0495484803472</v>
+        <v>282.5873710919113</v>
       </c>
       <c r="C7" t="n">
-        <v>353.0495484803472</v>
+        <v>282.5873710919113</v>
       </c>
       <c r="D7" t="n">
-        <v>353.0495484803472</v>
+        <v>180.7472684097102</v>
       </c>
       <c r="E7" t="n">
-        <v>353.0495484803472</v>
+        <v>32.83417482731709</v>
       </c>
       <c r="F7" t="n">
-        <v>353.0495484803472</v>
+        <v>32.83417482731709</v>
       </c>
       <c r="G7" t="n">
-        <v>184.7102334294992</v>
+        <v>32.83417482731709</v>
       </c>
       <c r="H7" t="n">
-        <v>32.83417482731685</v>
+        <v>32.83417482731709</v>
       </c>
       <c r="I7" t="n">
-        <v>32.83417482731685</v>
+        <v>32.83417482731709</v>
       </c>
       <c r="J7" t="n">
-        <v>33.85326317795612</v>
+        <v>33.85326317795669</v>
       </c>
       <c r="K7" t="n">
-        <v>165.3647751032158</v>
+        <v>165.364775103217</v>
       </c>
       <c r="L7" t="n">
-        <v>389.1806671416786</v>
+        <v>389.1806671416804</v>
       </c>
       <c r="M7" t="n">
-        <v>635.5522670870631</v>
+        <v>635.5522670870657</v>
       </c>
       <c r="N7" t="n">
-        <v>881.5003174752017</v>
+        <v>881.5003174752051</v>
       </c>
       <c r="O7" t="n">
-        <v>1092.656854339653</v>
+        <v>1092.656854339657</v>
       </c>
       <c r="P7" t="n">
-        <v>1249.817067817272</v>
+        <v>1249.817067817277</v>
       </c>
       <c r="Q7" t="n">
-        <v>1275.191573218728</v>
+        <v>1275.191573218733</v>
       </c>
       <c r="R7" t="n">
-        <v>1275.191573218728</v>
+        <v>1275.191573218733</v>
       </c>
       <c r="S7" t="n">
-        <v>1090.969262401282</v>
+        <v>1275.191573218733</v>
       </c>
       <c r="T7" t="n">
-        <v>1090.969262401282</v>
+        <v>1275.191573218733</v>
       </c>
       <c r="U7" t="n">
-        <v>801.8316785218947</v>
+        <v>986.0539893393457</v>
       </c>
       <c r="V7" t="n">
-        <v>801.8316785218947</v>
+        <v>731.3695011334588</v>
       </c>
       <c r="W7" t="n">
-        <v>801.8316785218947</v>
+        <v>731.3695011334588</v>
       </c>
       <c r="X7" t="n">
-        <v>573.8421276238773</v>
+        <v>503.3799502354415</v>
       </c>
       <c r="Y7" t="n">
-        <v>353.0495484803472</v>
+        <v>282.5873710919113</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1992.424186004858</v>
+        <v>1842.294639468328</v>
       </c>
       <c r="C8" t="n">
-        <v>1992.424186004858</v>
+        <v>1473.332122527917</v>
       </c>
       <c r="D8" t="n">
-        <v>1634.158487398107</v>
+        <v>1115.066423921166</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>729.2781713229219</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>318.2922665333144</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.25058172385</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.01262627016</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V8" t="n">
-        <v>2100.01262627016</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W8" t="n">
-        <v>2100.01262627016</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="X8" t="n">
-        <v>2100.01262627016</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="Y8" t="n">
-        <v>2100.01262627016</v>
+        <v>2228.89447953245</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>507.241398742976</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744476</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733668</v>
+        <v>1209.253210781439</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330613</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506775</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>251.8605878095222</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="C10" t="n">
-        <v>251.8605878095222</v>
+        <v>547.6621722378422</v>
       </c>
       <c r="D10" t="n">
-        <v>251.8605878095222</v>
+        <v>397.5455328255065</v>
       </c>
       <c r="E10" t="n">
-        <v>251.8605878095222</v>
+        <v>249.6324392431134</v>
       </c>
       <c r="F10" t="n">
-        <v>104.9706403116118</v>
+        <v>102.742491745203</v>
       </c>
       <c r="G10" t="n">
         <v>51.24678656800311</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1244.744376093917</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>990.0598878880302</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>700.6427178510696</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X10" t="n">
-        <v>472.6531669530523</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y10" t="n">
-        <v>251.8605878095222</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1731.923485236375</v>
+        <v>1987.56449507102</v>
       </c>
       <c r="C11" t="n">
-        <v>1362.960968295963</v>
+        <v>1618.601978130608</v>
       </c>
       <c r="D11" t="n">
-        <v>1291.726832123436</v>
+        <v>1260.336279523857</v>
       </c>
       <c r="E11" t="n">
-        <v>905.9385795251912</v>
+        <v>1217.333746572396</v>
       </c>
       <c r="F11" t="n">
-        <v>494.9526747355837</v>
+        <v>806.347841782788</v>
       </c>
       <c r="G11" t="n">
-        <v>80.45786684223388</v>
+        <v>391.8530338894381</v>
       </c>
       <c r="H11" t="n">
-        <v>80.45786684223388</v>
+        <v>100.1852123103651</v>
       </c>
       <c r="I11" t="n">
-        <v>80.45786684223388</v>
+        <v>80.45786684223398</v>
       </c>
       <c r="J11" t="n">
-        <v>317.3880320746707</v>
+        <v>317.3880320746703</v>
       </c>
       <c r="K11" t="n">
-        <v>723.2234501947025</v>
+        <v>723.2234501947028</v>
       </c>
       <c r="L11" t="n">
         <v>1263.599934653013</v>
@@ -5051,40 +5051,40 @@
         <v>1896.542330458665</v>
       </c>
       <c r="N11" t="n">
-        <v>2544.340204328186</v>
+        <v>2544.340204328187</v>
       </c>
       <c r="O11" t="n">
-        <v>3142.702105990706</v>
+        <v>3142.702105990708</v>
       </c>
       <c r="P11" t="n">
-        <v>3618.889144608853</v>
+        <v>3618.889144608856</v>
       </c>
       <c r="Q11" t="n">
-        <v>3928.313032718595</v>
+        <v>3928.313032718599</v>
       </c>
       <c r="R11" t="n">
-        <v>4022.893342111694</v>
+        <v>4022.893342111699</v>
       </c>
       <c r="S11" t="n">
-        <v>4022.893342111694</v>
+        <v>3925.765696676225</v>
       </c>
       <c r="T11" t="n">
-        <v>3819.444223496305</v>
+        <v>3722.316578060836</v>
       </c>
       <c r="U11" t="n">
-        <v>3565.959958151073</v>
+        <v>3468.832312715604</v>
       </c>
       <c r="V11" t="n">
-        <v>3234.897070807503</v>
+        <v>3137.769425372033</v>
       </c>
       <c r="W11" t="n">
-        <v>2882.128415537388</v>
+        <v>3137.769425372033</v>
       </c>
       <c r="X11" t="n">
-        <v>2508.662657276308</v>
+        <v>2764.303667110953</v>
       </c>
       <c r="Y11" t="n">
-        <v>2118.523325300497</v>
+        <v>2374.164335135141</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>176.3410440432266</v>
       </c>
       <c r="H12" t="n">
-        <v>88.82407519727431</v>
+        <v>88.82407519727434</v>
       </c>
       <c r="I12" t="n">
-        <v>80.45786684223388</v>
+        <v>80.45786684223398</v>
       </c>
       <c r="J12" t="n">
-        <v>202.7540031635555</v>
+        <v>202.7540031635558</v>
       </c>
       <c r="K12" t="n">
-        <v>489.9324039036186</v>
+        <v>489.9324039036192</v>
       </c>
       <c r="L12" t="n">
-        <v>922.4017448696434</v>
+        <v>922.4017448696445</v>
       </c>
       <c r="M12" t="n">
-        <v>1446.429935688254</v>
+        <v>1446.429935688256</v>
       </c>
       <c r="N12" t="n">
-        <v>1998.736238339033</v>
+        <v>1998.736238339036</v>
       </c>
       <c r="O12" t="n">
-        <v>2189.569860571537</v>
+        <v>2481.768808271237</v>
       </c>
       <c r="P12" t="n">
         <v>2557.913016602452</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>397.3071433525339</v>
+        <v>711.6408170431928</v>
       </c>
       <c r="C13" t="n">
-        <v>228.370960424627</v>
+        <v>542.7046341152859</v>
       </c>
       <c r="D13" t="n">
-        <v>228.370960424627</v>
+        <v>542.7046341152859</v>
       </c>
       <c r="E13" t="n">
-        <v>80.45786684223388</v>
+        <v>394.7915405328928</v>
       </c>
       <c r="F13" t="n">
-        <v>80.45786684223388</v>
+        <v>247.9015930349824</v>
       </c>
       <c r="G13" t="n">
-        <v>80.45786684223388</v>
+        <v>80.45786684223398</v>
       </c>
       <c r="H13" t="n">
-        <v>80.45786684223388</v>
+        <v>80.45786684223398</v>
       </c>
       <c r="I13" t="n">
-        <v>80.45786684223388</v>
+        <v>80.45786684223398</v>
       </c>
       <c r="J13" t="n">
-        <v>143.53505662839</v>
+        <v>143.5350566283898</v>
       </c>
       <c r="K13" t="n">
-        <v>377.0270927076814</v>
+        <v>377.0270927076816</v>
       </c>
       <c r="L13" t="n">
-        <v>731.3429449977118</v>
+        <v>731.3429449977122</v>
       </c>
       <c r="M13" t="n">
-        <v>1115.308455583782</v>
+        <v>1115.308455583783</v>
       </c>
       <c r="N13" t="n">
-        <v>1495.578740955083</v>
+        <v>1495.578740955084</v>
       </c>
       <c r="O13" t="n">
-        <v>1830.803602510214</v>
+        <v>1830.803602510216</v>
       </c>
       <c r="P13" t="n">
-        <v>2094.125701226115</v>
+        <v>2094.125701226116</v>
       </c>
       <c r="Q13" t="n">
-        <v>2193.001193167695</v>
+        <v>2193.001193167696</v>
       </c>
       <c r="R13" t="n">
-        <v>2193.001193167695</v>
+        <v>2193.001193167696</v>
       </c>
       <c r="S13" t="n">
-        <v>2005.830897168751</v>
+        <v>2005.830897168752</v>
       </c>
       <c r="T13" t="n">
-        <v>1785.171389950007</v>
+        <v>1785.171389950009</v>
       </c>
       <c r="U13" t="n">
-        <v>1496.082656371971</v>
+        <v>1496.082656371972</v>
       </c>
       <c r="V13" t="n">
-        <v>1241.398168166084</v>
+        <v>1496.082656371972</v>
       </c>
       <c r="W13" t="n">
-        <v>951.9809981291235</v>
+        <v>1206.665486335012</v>
       </c>
       <c r="X13" t="n">
-        <v>723.9914472311061</v>
+        <v>978.6759354369942</v>
       </c>
       <c r="Y13" t="n">
-        <v>503.198868087576</v>
+        <v>757.8833562934641</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555045</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614634</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007883</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1153.408479409639</v>
       </c>
       <c r="F14" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746200316</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872364</v>
+        <v>328.439467536438</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608051</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251937</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128765</v>
+        <v>841.9378825128757</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018652</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O14" t="n">
         <v>3602.609239333933</v>
@@ -5300,7 +5300,7 @@
         <v>4514.497374127288</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S14" t="n">
         <v>4555.113898070876</v>
@@ -5309,19 +5309,19 @@
         <v>4353.904749750194</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469744</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126173</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.164119594979</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619167</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608053</v>
+        <v>240.4596049779266</v>
       </c>
       <c r="K15" t="n">
-        <v>92.81162322608053</v>
+        <v>570.9683475412855</v>
       </c>
       <c r="L15" t="n">
-        <v>141.6400447072593</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M15" t="n">
-        <v>733.6583989593869</v>
+        <v>1511.096147944828</v>
       </c>
       <c r="N15" t="n">
-        <v>1355.754362358723</v>
+        <v>2133.192111344164</v>
       </c>
       <c r="O15" t="n">
-        <v>1902.630837358917</v>
+        <v>2133.192111344164</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.214355784993</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q15" t="n">
         <v>2552.77562977024</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>494.0589900220733</v>
+        <v>873.8816814720478</v>
       </c>
       <c r="C16" t="n">
-        <v>325.1228070941663</v>
+        <v>704.9454985441409</v>
       </c>
       <c r="D16" t="n">
-        <v>175.4425088264937</v>
+        <v>554.8288591318051</v>
       </c>
       <c r="E16" t="n">
-        <v>175.4425088264937</v>
+        <v>406.9157655494121</v>
       </c>
       <c r="F16" t="n">
-        <v>175.4425088264937</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="G16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861981</v>
+        <v>431.4224730861982</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693323</v>
+        <v>819.1842911693325</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N16" t="n">
         <v>1653.109749005499</v>
@@ -5458,28 +5458,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.516429368669</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S16" t="n">
-        <v>2177.346239107599</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="T16" t="n">
-        <v>1957.667456821981</v>
+        <v>2208.69699212455</v>
       </c>
       <c r="U16" t="n">
-        <v>1668.591243136708</v>
+        <v>2048.413934586682</v>
       </c>
       <c r="V16" t="n">
-        <v>1413.906754930821</v>
+        <v>1793.729446380795</v>
       </c>
       <c r="W16" t="n">
-        <v>1124.48958489386</v>
+        <v>1504.312276343835</v>
       </c>
       <c r="X16" t="n">
-        <v>896.5000339958431</v>
+        <v>1276.322725445818</v>
       </c>
       <c r="Y16" t="n">
-        <v>675.7074548523129</v>
+        <v>1055.530146302287</v>
       </c>
     </row>
     <row r="17">
@@ -5501,25 +5501,25 @@
         <v>1204.208000760438</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2220959708302</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G17" t="n">
         <v>379.2389888872364</v>
       </c>
       <c r="H17" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I17" t="n">
-        <v>92.81162322607997</v>
+        <v>92.81162322608088</v>
       </c>
       <c r="J17" t="n">
-        <v>372.3074987251925</v>
+        <v>372.3074987251944</v>
       </c>
       <c r="K17" t="n">
-        <v>841.9378825128749</v>
+        <v>841.9378825128765</v>
       </c>
       <c r="L17" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M17" t="n">
         <v>2182.462224957688</v>
@@ -5528,25 +5528,25 @@
         <v>2919.747202874794</v>
       </c>
       <c r="O17" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P17" t="n">
         <v>4150.915188021281</v>
       </c>
       <c r="Q17" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R17" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S17" t="n">
-        <v>4555.113898070877</v>
+        <v>4555.113898070876</v>
       </c>
       <c r="T17" t="n">
-        <v>4353.904749750195</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U17" t="n">
-        <v>4100.461420469745</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V17" t="n">
         <v>3820.198054476971</v>
@@ -5580,31 +5580,31 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F18" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G18" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H18" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I18" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J18" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="K18" t="n">
-        <v>92.81162322608056</v>
+        <v>423.3203657894393</v>
       </c>
       <c r="L18" t="n">
-        <v>141.6400447072574</v>
+        <v>423.3203657894393</v>
       </c>
       <c r="M18" t="n">
-        <v>733.6583989593854</v>
+        <v>733.6583989593869</v>
       </c>
       <c r="N18" t="n">
-        <v>1355.754362358722</v>
+        <v>1355.754362358723</v>
       </c>
       <c r="O18" t="n">
         <v>1902.630837358917</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>561.9183350635733</v>
+        <v>743.5667998938114</v>
       </c>
       <c r="C19" t="n">
-        <v>561.9183350635733</v>
+        <v>743.5667998938114</v>
       </c>
       <c r="D19" t="n">
-        <v>411.8016956512377</v>
+        <v>593.4501604814757</v>
       </c>
       <c r="E19" t="n">
-        <v>263.8886020688446</v>
+        <v>445.5370668990824</v>
       </c>
       <c r="F19" t="n">
-        <v>263.8886020688446</v>
+        <v>445.5370668990823</v>
       </c>
       <c r="G19" t="n">
-        <v>96.6744072434235</v>
+        <v>278.3228720736612</v>
       </c>
       <c r="H19" t="n">
-        <v>96.6744072434235</v>
+        <v>175.4425088264937</v>
       </c>
       <c r="I19" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J19" t="n">
-        <v>171.7937461156345</v>
+        <v>171.7937461156342</v>
       </c>
       <c r="K19" t="n">
-        <v>431.4224730861984</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L19" t="n">
-        <v>819.1842911693327</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M19" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N19" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O19" t="n">
-        <v>2020.132206020529</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P19" t="n">
-        <v>2310.662640856734</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q19" t="n">
-        <v>2428.375774410169</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R19" t="n">
-        <v>2428.375774410169</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S19" t="n">
-        <v>2245.205584149099</v>
+        <v>2245.205584149098</v>
       </c>
       <c r="T19" t="n">
-        <v>2025.526801863481</v>
+        <v>2025.52680186348</v>
       </c>
       <c r="U19" t="n">
-        <v>1736.450588178208</v>
+        <v>1736.450588178207</v>
       </c>
       <c r="V19" t="n">
-        <v>1481.766099972321</v>
+        <v>1481.76609997232</v>
       </c>
       <c r="W19" t="n">
-        <v>1192.348929935361</v>
+        <v>1192.348929935359</v>
       </c>
       <c r="X19" t="n">
-        <v>964.3593790373432</v>
+        <v>964.3593790373416</v>
       </c>
       <c r="Y19" t="n">
-        <v>743.566799893813</v>
+        <v>743.5667998938114</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.224468905844</v>
+        <v>2317.224468905843</v>
       </c>
       <c r="C20" t="n">
         <v>1948.261951965432</v>
@@ -5735,67 +5735,67 @@
         <v>1589.996253358682</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.208000760437</v>
+        <v>1204.208000760438</v>
       </c>
       <c r="F20" t="n">
         <v>793.22209597083</v>
       </c>
       <c r="G20" t="n">
-        <v>379.2389888872365</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H20" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I20" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J20" t="n">
-        <v>372.3074987251948</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K20" t="n">
-        <v>841.9378825128774</v>
+        <v>841.9378825128765</v>
       </c>
       <c r="L20" t="n">
-        <v>1461.457663018653</v>
+        <v>1461.457663018652</v>
       </c>
       <c r="M20" t="n">
-        <v>2182.462224957691</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N20" t="n">
-        <v>2919.747202874796</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O20" t="n">
-        <v>3602.609239333935</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P20" t="n">
-        <v>4150.915188021283</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q20" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R20" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S20" t="n">
-        <v>4555.113898070877</v>
+        <v>4605.913419421674</v>
       </c>
       <c r="T20" t="n">
-        <v>4353.904749750195</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U20" t="n">
-        <v>4100.461420469745</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V20" t="n">
-        <v>3769.398533126174</v>
+        <v>3820.198054476971</v>
       </c>
       <c r="W20" t="n">
-        <v>3416.629877856059</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X20" t="n">
-        <v>3043.16411959498</v>
+        <v>3093.963640945777</v>
       </c>
       <c r="Y20" t="n">
-        <v>2653.024787619168</v>
+        <v>2703.824308969965</v>
       </c>
     </row>
     <row r="21">
@@ -5817,34 +5817,34 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F21" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G21" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H21" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I21" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J21" t="n">
-        <v>92.81162322608056</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K21" t="n">
-        <v>92.81162322608056</v>
+        <v>570.9683475412852</v>
       </c>
       <c r="L21" t="n">
-        <v>583.5439560698319</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M21" t="n">
-        <v>1175.56231032196</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N21" t="n">
-        <v>1797.658273721296</v>
+        <v>2275.8149980365</v>
       </c>
       <c r="O21" t="n">
-        <v>2344.53474872149</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P21" t="n">
         <v>2552.77562977024</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>494.0589900220733</v>
+        <v>1015.754398433618</v>
       </c>
       <c r="C22" t="n">
-        <v>494.0589900220732</v>
+        <v>846.8182155057107</v>
       </c>
       <c r="D22" t="n">
-        <v>494.0589900220732</v>
+        <v>696.7015760933748</v>
       </c>
       <c r="E22" t="n">
-        <v>346.1458964396802</v>
+        <v>548.7884825109816</v>
       </c>
       <c r="F22" t="n">
-        <v>199.2559489417699</v>
+        <v>401.8985350130712</v>
       </c>
       <c r="G22" t="n">
-        <v>92.81162322608056</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="H22" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I22" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J22" t="n">
         <v>171.7937461156344</v>
@@ -5935,25 +5935,25 @@
         <v>2360.516429368669</v>
       </c>
       <c r="S22" t="n">
-        <v>2177.346239107599</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="T22" t="n">
-        <v>1957.667456821981</v>
+        <v>2140.837647083051</v>
       </c>
       <c r="U22" t="n">
-        <v>1668.591243136708</v>
+        <v>1962.297100650235</v>
       </c>
       <c r="V22" t="n">
-        <v>1413.906754930821</v>
+        <v>1707.612612444348</v>
       </c>
       <c r="W22" t="n">
-        <v>1124.48958489386</v>
+        <v>1418.195442407387</v>
       </c>
       <c r="X22" t="n">
-        <v>896.5000339958431</v>
+        <v>1418.195442407387</v>
       </c>
       <c r="Y22" t="n">
-        <v>675.7074548523129</v>
+        <v>1197.402863263857</v>
       </c>
     </row>
     <row r="23">
@@ -5981,19 +5981,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
         <v>2206.55866301478</v>
@@ -6008,22 +6008,22 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
         <v>3467.980956852888</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.793114229131</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>984.5467179762949</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>815.610535048388</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>665.4938956360522</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>517.5808020536592</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>370.690854555749</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>203.494755270629</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806535</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>1166.195182806535</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6218,37 +6218,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>849.3843576263198</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C28" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D28" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y28" t="n">
-        <v>1031.032822456559</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="29">
@@ -6455,37 +6455,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>779.6143379232827</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C31" t="n">
-        <v>779.6143379232827</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232828</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408896</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429793</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
         <v>826.1405381797745</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1772.498126207678</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1517.813638001791</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>1228.39646796483</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X31" t="n">
-        <v>1000.406917066813</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y31" t="n">
-        <v>779.6143379232827</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="32">
@@ -6692,55 +6692,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.793114229131</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188007</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>483.8760050556307</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>189.0729639753274</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925705</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490404</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="35">
@@ -6932,16 +6932,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6953,10 +6953,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.793114229131</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>779.6143379232836</v>
+        <v>915.1035305473705</v>
       </c>
       <c r="C37" t="n">
-        <v>779.6143379232836</v>
+        <v>746.1673476194636</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>596.0507082071279</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>448.1376146247346</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>448.1376146247347</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>280.9415153396146</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7111,34 +7111,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
-        <v>2281.17481784054</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2061.573352863481</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U37" t="n">
-        <v>1772.498126207679</v>
+        <v>1907.987318831766</v>
       </c>
       <c r="V37" t="n">
-        <v>1517.813638001792</v>
+        <v>1653.302830625879</v>
       </c>
       <c r="W37" t="n">
-        <v>1228.396467964831</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X37" t="n">
-        <v>1000.406917066814</v>
+        <v>1135.896109690901</v>
       </c>
       <c r="Y37" t="n">
-        <v>779.6143379232836</v>
+        <v>915.1035305473705</v>
       </c>
     </row>
     <row r="38">
@@ -7163,37 +7163,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7257,16 +7257,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>559.7594328861248</v>
+        <v>571.6607764188002</v>
       </c>
       <c r="C40" t="n">
-        <v>390.823249958218</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="D40" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908934</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7333,10 +7333,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7345,37 +7345,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166296</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189237</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327548</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290587</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925701</v>
       </c>
       <c r="Y40" t="n">
-        <v>741.4078977163646</v>
+        <v>753.3092412490399</v>
       </c>
     </row>
     <row r="41">
@@ -7400,34 +7400,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7488,19 +7488,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7555,10 +7555,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>198.0274703142541</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270448</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7579,10 +7579,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
@@ -7640,25 +7640,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7667,28 +7667,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,25 +7719,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>695.5020655703116</v>
+        <v>763.7541388327656</v>
       </c>
       <c r="C46" t="n">
-        <v>526.5658826424047</v>
+        <v>594.8179559048588</v>
       </c>
       <c r="D46" t="n">
-        <v>526.5658826424049</v>
+        <v>444.7013164925231</v>
       </c>
       <c r="E46" t="n">
-        <v>526.5658826424049</v>
+        <v>296.7882229101301</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>149.8982754122198</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>149.8982754122198</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782973</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038359</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797761</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603203</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741514</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704553</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138418</v>
+        <v>1166.195182806536</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703116</v>
+        <v>945.4026036630054</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>73.01783107116289</v>
+        <v>6.233205181928469</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>66.78462588923442</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,7 +8137,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>49.70416500698908</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8152,7 +8152,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>77.96696197637766</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>61.89011047839809</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>28.6266895265546</v>
+        <v>28.62668952655392</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>261.1167519041983</v>
+        <v>20.80346346294746</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>240.3132884412534</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8529,31 +8529,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>84.94186588374748</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>255.5240487471577</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23261,10 +23261,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>284.1612468098804</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>339.3578624503138</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>288.7511433632823</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>19.53007201344997</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>96.15636898111899</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>74.99917269424496</v>
+        <v>134.0518663241686</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.7692889308208</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>142.4743248871677</v>
       </c>
       <c r="I13" t="n">
-        <v>88.63818461247376</v>
+        <v>88.63818461247371</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>77.39811087628554</v>
+        <v>77.39811087628547</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>50.29152613729045</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>50.2915261372904</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4319777332163994</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.804576744409</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108353</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>127.5052245859316</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23783,13 +23783,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>50.29152613729031</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>50.29152613728922</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>38.60243017725811</v>
       </c>
       <c r="I19" t="n">
-        <v>77.98042056723919</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108352</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>50.291526137289</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>50.29152613729121</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>60.16217041863342</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>109.4303105799326</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24266,7 +24266,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>-1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>31.71340154579366</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24455,7 +24455,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24491,7 +24491,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>84.77391660561972</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24728,7 +24728,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-8.30056023914949e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,22 +24883,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>83.27114962944184</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24983,7 +24983,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
     </row>
     <row r="33">
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>152.4862366927524</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>57.22910392194146</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>36.30694539606314</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>83.27114962944238</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>45.4467738245925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25795,16 +25795,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>62.35543909864897</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194169</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>104.0840080815009</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>84.77391660561855</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>923199.568774034</v>
+        <v>923199.5687740342</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>832787.5805735992</v>
+        <v>832787.5805735997</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>895146.6281020805</v>
+        <v>895146.6281020804</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>900060.1389592533</v>
+        <v>900060.1389592531</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>900060.1389592533</v>
+        <v>900060.1389592531</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>900060.1389592532</v>
+        <v>900060.1389592531</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>900060.1389592531</v>
+        <v>900060.1389592532</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>900060.1389592533</v>
+        <v>900060.1389592532</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117838</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
+        <v>533677.1504117841</v>
+      </c>
+      <c r="D2" t="n">
         <v>533677.1504117842</v>
       </c>
-      <c r="D2" t="n">
-        <v>533677.1504117843</v>
-      </c>
       <c r="E2" t="n">
-        <v>484893.3234797085</v>
+        <v>484893.3234797087</v>
       </c>
       <c r="F2" t="n">
         <v>521741.8515647201</v>
       </c>
       <c r="G2" t="n">
-        <v>521741.8515647202</v>
+        <v>521741.8515647201</v>
       </c>
       <c r="H2" t="n">
-        <v>521741.8515647202</v>
+        <v>521741.85156472</v>
       </c>
       <c r="I2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.289798504</v>
       </c>
       <c r="J2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="K2" t="n">
         <v>524645.289798504</v>
@@ -26344,16 +26344,16 @@
         <v>524645.2897985039</v>
       </c>
       <c r="M2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="N2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.289798504</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.289798504</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985041</v>
       </c>
     </row>
     <row r="3">
@@ -26366,43 +26366,43 @@
         <v>652246.4444800889</v>
       </c>
       <c r="C3" t="n">
-        <v>188865.7817249472</v>
+        <v>188865.7817249506</v>
       </c>
       <c r="D3" t="n">
-        <v>237393.9769286983</v>
+        <v>237393.9769286951</v>
       </c>
       <c r="E3" t="n">
-        <v>348407.0423979628</v>
+        <v>348407.0423979638</v>
       </c>
       <c r="F3" t="n">
-        <v>143852.0300046406</v>
+        <v>143852.0300046399</v>
       </c>
       <c r="G3" t="n">
-        <v>6.549796580657131e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>10818.91345744859</v>
+        <v>10818.91345744865</v>
       </c>
       <c r="J3" t="n">
         <v>62744.31078353582</v>
       </c>
       <c r="K3" t="n">
-        <v>43911.93183967831</v>
+        <v>43911.93183967906</v>
       </c>
       <c r="L3" t="n">
-        <v>58250.82897577534</v>
+        <v>58250.82897577458</v>
       </c>
       <c r="M3" t="n">
-        <v>90993.97560824252</v>
+        <v>90993.97560824288</v>
       </c>
       <c r="N3" t="n">
-        <v>37822.10612283008</v>
+        <v>37822.10612282982</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>261062.8075060265</v>
+        <v>261062.8075060264</v>
       </c>
       <c r="C4" t="n">
-        <v>210539.1780328208</v>
+        <v>210539.1780328198</v>
       </c>
       <c r="D4" t="n">
-        <v>143951.0939828188</v>
+        <v>143951.0939828189</v>
       </c>
       <c r="E4" t="n">
-        <v>12910.33839420538</v>
+        <v>12910.33839420539</v>
       </c>
       <c r="F4" t="n">
         <v>12990.33152560508</v>
@@ -26448,7 +26448,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
-        <v>12996.86414683043</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="N4" t="n">
         <v>12996.86414683044</v>
@@ -26470,13 +26470,13 @@
         <v>61145.70223437328</v>
       </c>
       <c r="C5" t="n">
-        <v>74721.20384882505</v>
+        <v>74721.20384882529</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>88006.19635166982</v>
+        <v>88006.19635166992</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-440777.8038087048</v>
+        <v>-440777.8038087046</v>
       </c>
       <c r="C6" t="n">
-        <v>59550.98680519116</v>
+        <v>59550.98680518831</v>
       </c>
       <c r="D6" t="n">
-        <v>59394.3070604224</v>
+        <v>59394.30706042549</v>
       </c>
       <c r="E6" t="n">
-        <v>35569.7463358705</v>
+        <v>35382.11623228466</v>
       </c>
       <c r="F6" t="n">
-        <v>264757.361520636</v>
+        <v>264711.4565250711</v>
       </c>
       <c r="G6" t="n">
-        <v>408609.3915252759</v>
+        <v>408563.4865297113</v>
       </c>
       <c r="H6" t="n">
-        <v>408609.3915252771</v>
+        <v>408563.4865297108</v>
       </c>
       <c r="I6" t="n">
-        <v>399706.9823703176</v>
+        <v>399672.244444882</v>
       </c>
       <c r="J6" t="n">
-        <v>347781.5850442305</v>
+        <v>347746.847118795</v>
       </c>
       <c r="K6" t="n">
-        <v>366613.9639880881</v>
+        <v>366579.2260626516</v>
       </c>
       <c r="L6" t="n">
-        <v>352275.0668519909</v>
+        <v>352240.328926556</v>
       </c>
       <c r="M6" t="n">
-        <v>319531.9202195238</v>
+        <v>319497.1822940879</v>
       </c>
       <c r="N6" t="n">
-        <v>372703.7897049361</v>
+        <v>372669.0517795008</v>
       </c>
       <c r="O6" t="n">
-        <v>410525.895827766</v>
+        <v>410491.1579023307</v>
       </c>
       <c r="P6" t="n">
-        <v>410525.8958277664</v>
+        <v>410491.1579023308</v>
       </c>
     </row>
   </sheetData>
@@ -26738,13 +26738,13 @@
         <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>740.3500449570756</v>
+        <v>740.3500449570784</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1232.028328053765</v>
+        <v>1232.028328053766</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26790,34 +26790,34 @@
         <v>239.8079481415045</v>
       </c>
       <c r="C4" t="n">
-        <v>410.4271853414606</v>
+        <v>410.4271853414635</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1005.723335527923</v>
+        <v>1005.723335527925</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
         <v>1160.145290326007</v>
       </c>
       <c r="H4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26829,7 +26829,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26960,19 +26960,19 @@
         <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>146.873944619011</v>
+        <v>146.8739446190137</v>
       </c>
       <c r="D3" t="n">
-        <v>193.7148471604635</v>
+        <v>193.7148471604607</v>
       </c>
       <c r="E3" t="n">
-        <v>297.963435936226</v>
+        <v>297.9634359362269</v>
       </c>
       <c r="F3" t="n">
-        <v>126.0127206626205</v>
+        <v>126.01272066262</v>
       </c>
       <c r="G3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27012,43 +27012,43 @@
         <v>239.8079481415045</v>
       </c>
       <c r="C4" t="n">
-        <v>170.6192371999561</v>
+        <v>170.6192371999591</v>
       </c>
       <c r="D4" t="n">
-        <v>230.1576467585783</v>
+        <v>230.1576467585753</v>
       </c>
       <c r="E4" t="n">
-        <v>365.1385034278846</v>
+        <v>365.1385034278859</v>
       </c>
       <c r="F4" t="n">
-        <v>154.421954798083</v>
+        <v>154.421954798082</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="J4" t="n">
         <v>239.8079481415045</v>
       </c>
       <c r="K4" t="n">
-        <v>170.6192371999561</v>
+        <v>170.6192371999591</v>
       </c>
       <c r="L4" t="n">
-        <v>230.1576467585783</v>
+        <v>230.1576467585753</v>
       </c>
       <c r="M4" t="n">
-        <v>365.1385034278844</v>
+        <v>365.1385034278859</v>
       </c>
       <c r="N4" t="n">
-        <v>154.421954798083</v>
+        <v>154.421954798082</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27258,19 +27258,19 @@
         <v>239.8079481415045</v>
       </c>
       <c r="K4" t="n">
-        <v>170.6192371999561</v>
+        <v>170.6192371999591</v>
       </c>
       <c r="L4" t="n">
-        <v>230.1576467585783</v>
+        <v>230.1576467585753</v>
       </c>
       <c r="M4" t="n">
-        <v>365.1385034278846</v>
+        <v>365.1385034278859</v>
       </c>
       <c r="N4" t="n">
-        <v>154.421954798083</v>
+        <v>154.421954798082</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,13 +27382,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>114.8750934791785</v>
       </c>
       <c r="E2" t="n">
         <v>142.1224219307573</v>
       </c>
       <c r="F2" t="n">
-        <v>181.4140239380727</v>
+        <v>208.5701089646112</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27430,7 +27430,7 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
         <v>251.1547862223006</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>109.4330205759085</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>146.4299905145491</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,7 +27458,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>54.8716322976986</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>99.90681807664346</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>45.4458084395867</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183515</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>21.70608560413727</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T3" t="n">
         <v>195.0194028815133</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27591,7 +27591,7 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>245.8821841629895</v>
+        <v>78.63536306436166</v>
       </c>
       <c r="V4" t="n">
         <v>12.32969518232352</v>
@@ -27616,22 +27616,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>110.0718552249712</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>308.9939583050469</v>
+        <v>308.9939583050468</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>251.1075503808151</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>139.2725000851552</v>
       </c>
     </row>
     <row r="6">
@@ -27695,22 +27695,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>63.69322939413925</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7510661231143</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.85571971767112</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27743,13 +27743,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>142.1040914774867</v>
+        <v>142.1040914774866</v>
       </c>
       <c r="T6" t="n">
-        <v>182.5584152741531</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.836615565179</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27777,22 +27777,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>47.79377136283325</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6559219003395</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.3572980161605</v>
       </c>
       <c r="I7" t="n">
-        <v>115.3016560958156</v>
+        <v>115.3016560958154</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>117.2643533057319</v>
+        <v>117.2643533057316</v>
       </c>
       <c r="S7" t="n">
-        <v>18.37009989847616</v>
+        <v>200.7501876077474</v>
       </c>
       <c r="T7" t="n">
         <v>222.2412530163171</v>
@@ -27831,7 +27831,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>276.2212858008318</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>147.1726776072959</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>113.1199848386316</v>
+        <v>115.3258519193763</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551289</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28065,10 +28065,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>-4.486297101757335e-14</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -30876,7 +30876,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>1.629224252702452e-12</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.976281587767136</v>
+        <v>2.976281587767147</v>
       </c>
       <c r="H5" t="n">
-        <v>30.48084381072019</v>
+        <v>30.4808438107203</v>
       </c>
       <c r="I5" t="n">
-        <v>114.7430959123926</v>
+        <v>114.743095912393</v>
       </c>
       <c r="J5" t="n">
-        <v>252.6081794097512</v>
+        <v>252.6081794097521</v>
       </c>
       <c r="K5" t="n">
-        <v>378.5941790199341</v>
+        <v>378.5941790199355</v>
       </c>
       <c r="L5" t="n">
-        <v>469.6795566615627</v>
+        <v>469.6795566615644</v>
       </c>
       <c r="M5" t="n">
-        <v>522.6090043480165</v>
+        <v>522.6090043480184</v>
       </c>
       <c r="N5" t="n">
-        <v>531.0653644092599</v>
+        <v>531.0653644092619</v>
       </c>
       <c r="O5" t="n">
-        <v>501.4699643709004</v>
+        <v>501.4699643709023</v>
       </c>
       <c r="P5" t="n">
-        <v>427.9930126728992</v>
+        <v>427.9930126729008</v>
       </c>
       <c r="Q5" t="n">
-        <v>321.4049283109885</v>
+        <v>321.4049283109897</v>
       </c>
       <c r="R5" t="n">
-        <v>186.9588482875775</v>
+        <v>186.9588482875782</v>
       </c>
       <c r="S5" t="n">
-        <v>67.82201668124368</v>
+        <v>67.82201668124392</v>
       </c>
       <c r="T5" t="n">
-        <v>13.02867265045064</v>
+        <v>13.02867265045069</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2381025270213708</v>
+        <v>0.2381025270213717</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.592451040096351</v>
+        <v>1.592451040096357</v>
       </c>
       <c r="H6" t="n">
-        <v>15.37972451882529</v>
+        <v>15.37972451882535</v>
       </c>
       <c r="I6" t="n">
-        <v>54.82780993314193</v>
+        <v>54.82780993314213</v>
       </c>
       <c r="J6" t="n">
-        <v>150.4517011171733</v>
+        <v>150.4517011171739</v>
       </c>
       <c r="K6" t="n">
-        <v>257.1459208036288</v>
+        <v>257.1459208036298</v>
       </c>
       <c r="L6" t="n">
-        <v>345.7644242981135</v>
+        <v>345.7644242981148</v>
       </c>
       <c r="M6" t="n">
-        <v>403.4907745016062</v>
+        <v>403.4907745016076</v>
       </c>
       <c r="N6" t="n">
-        <v>414.1699746783927</v>
+        <v>414.1699746783943</v>
       </c>
       <c r="O6" t="n">
-        <v>378.884612158363</v>
+        <v>378.8846121583644</v>
       </c>
       <c r="P6" t="n">
-        <v>304.0883043145392</v>
+        <v>304.0883043145404</v>
       </c>
       <c r="Q6" t="n">
-        <v>203.274978381422</v>
+        <v>203.2749783814228</v>
       </c>
       <c r="R6" t="n">
-        <v>98.87165317370157</v>
+        <v>98.87165317370194</v>
       </c>
       <c r="S6" t="n">
-        <v>29.57907962635107</v>
+        <v>29.57907962635118</v>
       </c>
       <c r="T6" t="n">
-        <v>6.418695201090116</v>
+        <v>6.41869520109014</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1047665157958126</v>
+        <v>0.104766515795813</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.335057458119317</v>
+        <v>1.335057458119322</v>
       </c>
       <c r="H7" t="n">
-        <v>11.86987449127902</v>
+        <v>11.86987449127907</v>
       </c>
       <c r="I7" t="n">
-        <v>40.14881883144273</v>
+        <v>40.14881883144288</v>
       </c>
       <c r="J7" t="n">
-        <v>94.38856228903568</v>
+        <v>94.38856228903602</v>
       </c>
       <c r="K7" t="n">
-        <v>155.1094028614988</v>
+        <v>155.1094028614993</v>
       </c>
       <c r="L7" t="n">
-        <v>198.4866333643937</v>
+        <v>198.4866333643944</v>
       </c>
       <c r="M7" t="n">
-        <v>209.2763250031943</v>
+        <v>209.2763250031951</v>
       </c>
       <c r="N7" t="n">
-        <v>204.3002017502043</v>
+        <v>204.300201750205</v>
       </c>
       <c r="O7" t="n">
-        <v>188.704303262174</v>
+        <v>188.7043032621747</v>
       </c>
       <c r="P7" t="n">
-        <v>161.4691311165398</v>
+        <v>161.4691311165404</v>
       </c>
       <c r="Q7" t="n">
-        <v>111.7928567885184</v>
+        <v>111.7928567885188</v>
       </c>
       <c r="R7" t="n">
-        <v>60.02903807143762</v>
+        <v>60.02903807143784</v>
       </c>
       <c r="S7" t="n">
-        <v>23.26641042922481</v>
+        <v>23.26641042922489</v>
       </c>
       <c r="T7" t="n">
-        <v>5.704336411964351</v>
+        <v>5.704336411964372</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07282131589741735</v>
+        <v>0.07282131589741762</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.95287770071865</v>
+        <v>4.952877700718654</v>
       </c>
       <c r="H11" t="n">
-        <v>50.72365875248489</v>
+        <v>50.72365875248492</v>
       </c>
       <c r="I11" t="n">
-        <v>190.9458175569559</v>
+        <v>190.9458175569561</v>
       </c>
       <c r="J11" t="n">
-        <v>420.3693037513699</v>
+        <v>420.3693037513702</v>
       </c>
       <c r="K11" t="n">
-        <v>630.0246168227904</v>
+        <v>630.0246168227909</v>
       </c>
       <c r="L11" t="n">
-        <v>781.6012477561591</v>
+        <v>781.6012477561596</v>
       </c>
       <c r="M11" t="n">
-        <v>869.6819865663143</v>
+        <v>869.6819865663149</v>
       </c>
       <c r="N11" t="n">
-        <v>883.7543503334812</v>
+        <v>883.7543503334819</v>
       </c>
       <c r="O11" t="n">
-        <v>834.50417269696</v>
+        <v>834.5041726969607</v>
       </c>
       <c r="P11" t="n">
-        <v>712.2300044604683</v>
+        <v>712.2300044604689</v>
       </c>
       <c r="Q11" t="n">
-        <v>534.8550718034815</v>
+        <v>534.8550718034819</v>
       </c>
       <c r="R11" t="n">
-        <v>311.1212038677681</v>
+        <v>311.1212038677684</v>
       </c>
       <c r="S11" t="n">
         <v>112.8637006051264</v>
       </c>
       <c r="T11" t="n">
-        <v>21.6812221348959</v>
+        <v>21.68122213489592</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3962302160574919</v>
+        <v>0.3962302160574922</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.650023196191118</v>
+        <v>2.650023196191119</v>
       </c>
       <c r="H12" t="n">
-        <v>25.59364507900369</v>
+        <v>25.59364507900371</v>
       </c>
       <c r="I12" t="n">
-        <v>91.23983372850998</v>
+        <v>91.23983372851005</v>
       </c>
       <c r="J12" t="n">
-        <v>250.3690774962845</v>
+        <v>250.3690774962847</v>
       </c>
       <c r="K12" t="n">
-        <v>427.9206316410894</v>
+        <v>427.9206316410897</v>
       </c>
       <c r="L12" t="n">
-        <v>575.392097927374</v>
+        <v>575.3920979273745</v>
       </c>
       <c r="M12" t="n">
-        <v>671.4554387893019</v>
+        <v>671.4554387893024</v>
       </c>
       <c r="N12" t="n">
-        <v>689.2268662760398</v>
+        <v>689.2268662760404</v>
       </c>
       <c r="O12" t="n">
-        <v>335.3574790227311</v>
+        <v>630.5079312446476</v>
       </c>
       <c r="P12" t="n">
-        <v>506.0382013849513</v>
+        <v>210.8877491630327</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>49.22301857837445</v>
+        <v>49.22301857837449</v>
       </c>
       <c r="T12" t="n">
         <v>10.68145314605104</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1743436313283631</v>
+        <v>0.1743436313283632</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.221690427637937</v>
+        <v>2.221690427637939</v>
       </c>
       <c r="H13" t="n">
-        <v>19.75284762027185</v>
+        <v>19.75284762027187</v>
       </c>
       <c r="I13" t="n">
-        <v>66.81229031478452</v>
+        <v>66.81229031478458</v>
       </c>
       <c r="J13" t="n">
-        <v>157.0735132340021</v>
+        <v>157.0735132340022</v>
       </c>
       <c r="K13" t="n">
-        <v>258.1200333201166</v>
+        <v>258.1200333201168</v>
       </c>
       <c r="L13" t="n">
-        <v>330.3047750326439</v>
+        <v>330.3047750326441</v>
       </c>
       <c r="M13" t="n">
-        <v>348.2600731250994</v>
+        <v>348.2600731250997</v>
       </c>
       <c r="N13" t="n">
-        <v>339.979226985722</v>
+        <v>339.9792269857222</v>
       </c>
       <c r="O13" t="n">
-        <v>314.0258433537696</v>
+        <v>314.0258433537698</v>
       </c>
       <c r="P13" t="n">
-        <v>268.7033586299555</v>
+        <v>268.7033586299556</v>
       </c>
       <c r="Q13" t="n">
-        <v>186.0362775361185</v>
+        <v>186.0362775361187</v>
       </c>
       <c r="R13" t="n">
-        <v>99.89528050088394</v>
+        <v>99.89528050088401</v>
       </c>
       <c r="S13" t="n">
-        <v>38.71800499801748</v>
+        <v>38.71800499801751</v>
       </c>
       <c r="T13" t="n">
-        <v>9.492677281725728</v>
+        <v>9.492677281725735</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1211831142347967</v>
+        <v>0.1211831142347968</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377427</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122284</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>210.475889570406</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874066</v>
       </c>
       <c r="K14" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830432</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364266</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293311</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229608</v>
+        <v>974.145364522961</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086955</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687526</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148608</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S14" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854258</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U14" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901941</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540906</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735819</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848226</v>
       </c>
       <c r="L15" t="n">
-        <v>187.8760176396507</v>
+        <v>634.2436048745726</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504301</v>
+        <v>596.0688496389786</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927637</v>
+        <v>759.721473092764</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426204</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982453</v>
+        <v>557.7961431982455</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013755</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,40 +32148,40 @@
         <v>2.448926481291843</v>
       </c>
       <c r="H16" t="n">
-        <v>21.77318271548567</v>
+        <v>21.77318271548568</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284928</v>
       </c>
       <c r="J16" t="n">
         <v>173.1391022273333</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900887</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640618</v>
+        <v>364.088578864062</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265023</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416876</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465964</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282425</v>
       </c>
       <c r="Q16" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561743</v>
       </c>
       <c r="R16" t="n">
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377428</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122285</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I17" t="n">
-        <v>210.475889570406</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>463.3649706874066</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K17" t="n">
-        <v>694.4639760830433</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364267</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M17" t="n">
-        <v>958.6336695293313</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229612</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086956</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687527</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148609</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R17" t="n">
-        <v>342.9428985987165</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S17" t="n">
-        <v>124.4074789854258</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T17" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4367569201901942</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.921069425540907</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H18" t="n">
-        <v>28.21138103088192</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
-        <v>187.8760176396488</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>740.1323715504304</v>
+        <v>455.6067946997432</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927641</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O18" t="n">
-        <v>694.9967242426209</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P18" t="n">
-        <v>557.7961431982455</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q18" t="n">
-        <v>372.8719498286954</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.25758340862163</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1921756201013755</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.448926481291844</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H19" t="n">
-        <v>21.77318271548568</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284929</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J19" t="n">
-        <v>173.1391022273334</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K19" t="n">
-        <v>284.5207311900887</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L19" t="n">
-        <v>364.088578864062</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M19" t="n">
-        <v>383.8803574265024</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416876</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465964</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P19" t="n">
-        <v>296.1865264282425</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q19" t="n">
-        <v>205.0641983561743</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R19" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>42.6781096785133</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T19" t="n">
         <v>10.46359496551969</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1335778080704644</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,46 +32461,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K20" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M20" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S20" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T20" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U20" t="n">
         <v>0.436756920190194</v>
@@ -32543,31 +32543,31 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H21" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M21" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169088</v>
       </c>
       <c r="P21" t="n">
-        <v>344.3187317059969</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,10 +32576,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U21" t="n">
         <v>0.1921756201013754</v>
@@ -32625,7 +32625,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J22" t="n">
         <v>173.1391022273333</v>
@@ -32634,16 +32634,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P22" t="n">
         <v>296.1865264282424</v>
@@ -32655,7 +32655,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T22" t="n">
         <v>10.46359496551969</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,22 +33974,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>518.4394551593577</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,31 +34199,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319848</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,31 +34436,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319848</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>66.78462588923442</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>68.2907269326837</v>
@@ -34796,7 +34796,7 @@
         <v>109.7875025528269</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.96660727472408</v>
+        <v>89.7512331639585</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>102.0686157531411</v>
+        <v>45.02901441547768</v>
       </c>
       <c r="L4" t="n">
         <v>186.6999948493114</v>
@@ -34872,7 +34872,7 @@
         <v>175.8534296854533</v>
       </c>
       <c r="P4" t="n">
-        <v>69.67512249932199</v>
+        <v>126.7147238369854</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>71.5622748830649</v>
+        <v>71.56227488306584</v>
       </c>
       <c r="K5" t="n">
-        <v>158.5043279749536</v>
+        <v>158.5043279749549</v>
       </c>
       <c r="L5" t="n">
-        <v>233.9131416915754</v>
+        <v>233.9131416915772</v>
       </c>
       <c r="M5" t="n">
-        <v>292.2627711207438</v>
+        <v>292.2627711207457</v>
       </c>
       <c r="N5" t="n">
-        <v>301.652300812669</v>
+        <v>301.6523008126709</v>
       </c>
       <c r="O5" t="n">
-        <v>271.3717529492137</v>
+        <v>271.3717529492155</v>
       </c>
       <c r="P5" t="n">
-        <v>196.7600169176296</v>
+        <v>196.7600169176312</v>
       </c>
       <c r="Q5" t="n">
-        <v>99.09923843653903</v>
+        <v>99.09923843654022</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>23.61407445050659</v>
+        <v>23.61407445050716</v>
       </c>
       <c r="K6" t="n">
-        <v>380.4212337334681</v>
+        <v>140.1079452922183</v>
       </c>
       <c r="L6" t="n">
-        <v>207.2100445182393</v>
+        <v>207.2100445182406</v>
       </c>
       <c r="M6" t="n">
-        <v>261.3567405795878</v>
+        <v>261.3567405795893</v>
       </c>
       <c r="N6" t="n">
-        <v>282.8282625950594</v>
+        <v>282.828262595061</v>
       </c>
       <c r="O6" t="n">
-        <v>236.2883677139186</v>
+        <v>236.28836771392</v>
       </c>
       <c r="P6" t="n">
-        <v>170.113896900209</v>
+        <v>410.4271853414635</v>
       </c>
       <c r="Q6" t="n">
-        <v>63.29320429540047</v>
+        <v>63.29320429540124</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.029382172362901</v>
+        <v>1.029382172363242</v>
       </c>
       <c r="K7" t="n">
-        <v>132.8399110356159</v>
+        <v>132.8399110356165</v>
       </c>
       <c r="L7" t="n">
-        <v>226.0766586247098</v>
+        <v>226.0766586247106</v>
       </c>
       <c r="M7" t="n">
-        <v>248.8602019650349</v>
+        <v>248.8602019650357</v>
       </c>
       <c r="N7" t="n">
-        <v>248.4323741294329</v>
+        <v>248.4323741294336</v>
       </c>
       <c r="O7" t="n">
-        <v>213.2894311762137</v>
+        <v>213.2894311762144</v>
       </c>
       <c r="P7" t="n">
-        <v>158.7476903814333</v>
+        <v>158.7476903814339</v>
       </c>
       <c r="Q7" t="n">
-        <v>25.63081353682404</v>
+        <v>25.63081353682445</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>271.5293621272323</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>622.4553810291982</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>239.3233992246836</v>
+        <v>239.3233992246839</v>
       </c>
       <c r="K11" t="n">
-        <v>409.9347657778099</v>
+        <v>409.9347657778104</v>
       </c>
       <c r="L11" t="n">
-        <v>545.8348327861718</v>
+        <v>545.8348327861725</v>
       </c>
       <c r="M11" t="n">
-        <v>639.3357533390416</v>
+        <v>639.3357533390422</v>
       </c>
       <c r="N11" t="n">
-        <v>654.3412867368902</v>
+        <v>654.3412867368909</v>
       </c>
       <c r="O11" t="n">
-        <v>604.4059612752733</v>
+        <v>604.405961275274</v>
       </c>
       <c r="P11" t="n">
-        <v>480.9970087051988</v>
+        <v>480.9970087051993</v>
       </c>
       <c r="Q11" t="n">
-        <v>312.5493819290319</v>
+        <v>312.5493819290324</v>
       </c>
       <c r="R11" t="n">
-        <v>95.53566605363602</v>
+        <v>95.53566605363625</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>123.5314508296178</v>
+        <v>123.531450829618</v>
       </c>
       <c r="K12" t="n">
-        <v>290.0791926667304</v>
+        <v>290.0791926667307</v>
       </c>
       <c r="L12" t="n">
-        <v>436.8377181474999</v>
+        <v>436.8377181475003</v>
       </c>
       <c r="M12" t="n">
-        <v>529.3214048672835</v>
+        <v>529.3214048672842</v>
       </c>
       <c r="N12" t="n">
-        <v>557.8851541927065</v>
+        <v>557.8851541927071</v>
       </c>
       <c r="O12" t="n">
-        <v>192.7612345782867</v>
+        <v>487.9116868002031</v>
       </c>
       <c r="P12" t="n">
-        <v>372.063793970621</v>
+        <v>76.91334174870242</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.71433311732935</v>
+        <v>63.71433311732946</v>
       </c>
       <c r="K13" t="n">
-        <v>235.8505414942337</v>
+        <v>235.850541494234</v>
       </c>
       <c r="L13" t="n">
-        <v>357.89480029296</v>
+        <v>357.8948002929602</v>
       </c>
       <c r="M13" t="n">
-        <v>387.84395008694</v>
+        <v>387.8439500869403</v>
       </c>
       <c r="N13" t="n">
-        <v>384.1113993649506</v>
+        <v>384.1113993649508</v>
       </c>
       <c r="O13" t="n">
-        <v>338.6109712678092</v>
+        <v>338.6109712678095</v>
       </c>
       <c r="P13" t="n">
-        <v>265.9819178948489</v>
+        <v>265.9819178948491</v>
       </c>
       <c r="Q13" t="n">
-        <v>99.87423428442413</v>
+        <v>99.87423428442428</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607203</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380627</v>
       </c>
       <c r="L14" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M14" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020584</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870087</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404113</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069152</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104636</v>
       </c>
       <c r="L15" t="n">
-        <v>49.32163785977657</v>
+        <v>495.6892250946984</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284117</v>
+        <v>453.9348157169603</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094307</v>
       </c>
       <c r="O15" t="n">
-        <v>552.400479798176</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839151</v>
+        <v>423.8217357839153</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066055</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642058</v>
       </c>
       <c r="L16" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243781</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209162</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931358</v>
+        <v>293.465085693136</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>282.3190661607204</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380628</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7775560664395</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M17" t="n">
-        <v>728.2874363020586</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N17" t="n">
-        <v>744.7323009263703</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870089</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P17" t="n">
-        <v>553.8443926134833</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404114</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845843</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
-        <v>49.32163785977459</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>597.9983376284122</v>
+        <v>313.4727607777249</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094308</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O18" t="n">
-        <v>552.4004797981764</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P18" t="n">
-        <v>423.8217357839153</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q18" t="n">
-        <v>232.8901757426739</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211066058</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K19" t="n">
-        <v>262.2512393642058</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L19" t="n">
-        <v>391.6786041243781</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M19" t="n">
-        <v>423.464234388343</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N19" t="n">
-        <v>418.8847129209162</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O19" t="n">
-        <v>370.7297545606361</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P19" t="n">
-        <v>293.465085693136</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M20" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N20" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P20" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R20" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M21" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O21" t="n">
-        <v>552.4004797981761</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="P21" t="n">
-        <v>210.3443242916667</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K22" t="n">
         <v>262.2512393642057</v>
@@ -36285,19 +36285,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N22" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O22" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,19 +37625,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>376.3054212373395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875403</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,22 +38093,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875403</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295499</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
